--- a/src/main/resources/templates/pipeTemplate.xlsx
+++ b/src/main/resources/templates/pipeTemplate.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
